--- a/bin/config/xlsx/SkillPermission.xlsx
+++ b/bin/config/xlsx/SkillPermission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="12270" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="SkillPermission" sheetId="2" r:id="rId1"/>
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1071,9 +1071,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1093,38 +1093,37 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1139,9 +1138,33 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/config/xlsx/SkillPermission.xlsx
+++ b/bin/config/xlsx/SkillPermission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12270" windowHeight="7935"/>
+    <workbookView windowWidth="13170" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="SkillPermission" sheetId="2" r:id="rId1"/>
@@ -744,7 +744,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -994,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1071,9 +1071,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1093,37 +1093,38 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1138,33 +1139,9 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
